--- a/main.xlsx
+++ b/main.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Pokemon Name</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
   </si>
   <si>
     <t>Amount of Red Pixels</t>
@@ -375,17 +372,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -401,9 +397,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
